--- a/res/Unformatted/Basketball_Women_Ohio.xlsx
+++ b/res/Unformatted/Basketball_Women_Ohio.xlsx
@@ -16,7 +16,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Pos.</t>
+  </si>
+  <si>
+    <t>Cl.</t>
+  </si>
+  <si>
+    <t>Ht.</t>
+  </si>
+  <si>
+    <t>Hometown/High School</t>
+  </si>
   <si>
     <t>Taylor Agler</t>
   </si>
@@ -131,18 +149,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -171,15 +196,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,58 +220,26 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,13 +253,58 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -273,35 +312,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,193 +335,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF005643"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,15 +550,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -543,6 +565,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -554,6 +596,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,199 +647,173 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1101,308 +1135,328 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A1" sqref="A1:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" ht="54.75" spans="1:6">
-      <c r="A1" s="1">
+    <row r="1" ht="41.25" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3">
-        <v>43229</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="54.75" spans="1:6">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43229</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="54.75" spans="1:6">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4">
         <v>43228</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" ht="41.25" spans="1:6">
-      <c r="A3" s="1">
+    <row r="4" ht="41.25" spans="1:6">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4">
         <v>43230</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" ht="54.75" spans="1:6">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3">
-        <v>43229</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" ht="54.75" spans="1:6">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4">
+        <v>43229</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="54.75" spans="1:6">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4">
+        <v>43231</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="41.25" spans="1:6">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="E5" s="3">
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4">
         <v>43231</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" ht="41.25" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3">
-        <v>43231</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
+    <row r="8" ht="68.25" spans="1:6">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="7" ht="68.25" spans="1:6">
-      <c r="A7" s="1">
+    <row r="9" ht="41.25" spans="1:6">
+      <c r="A9" s="2">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" ht="41.25" spans="1:6">
-      <c r="A8" s="1">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4">
         <v>43228</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" ht="54.75" spans="1:6">
-      <c r="A9" s="1">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="3">
-        <v>43252</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" ht="54.75" spans="1:6">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4">
+        <v>43252</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" ht="54.75" spans="1:6">
+      <c r="A11" s="2">
         <v>15</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4">
         <v>43228</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" ht="68.25" spans="1:6">
-      <c r="A11" s="1">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3">
-        <v>43252</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>28</v>
+      <c r="F11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="68.25" spans="1:6">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4">
+        <v>43252</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" ht="68.25" spans="1:6">
+      <c r="A13" s="2">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="5">
         <v>36678</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" ht="54.75" spans="1:6">
-      <c r="A13" s="1">
-        <v>41</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="3">
-        <v>43231</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>33</v>
+      <c r="F13" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" ht="54.75" spans="1:6">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
+        <v>41</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4">
+        <v>43231</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" ht="54.75" spans="1:6">
+      <c r="A15" s="2">
         <v>54</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="5">
         <v>36678</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>35</v>
+      <c r="F15" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="Taylor Agler" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/agler_taylor_ovbv"/>
-    <hyperlink ref="B2" r:id="rId2" display="Cierra Hooks" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/hooks_cierra_xmvn"/>
-    <hyperlink ref="B3" r:id="rId3" display="Katie Barker" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/barker_katie_lsqw"/>
-    <hyperlink ref="B4" r:id="rId4" display="Amani Burke" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/burke_amani_6yzy"/>
-    <hyperlink ref="B5" r:id="rId5" display="Erica Johnson" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/johnson_erica_xxe3"/>
-    <hyperlink ref="B6" r:id="rId6" display="Alexis Stover" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/stover_alexis_dkp4"/>
-    <hyperlink ref="B7" r:id="rId7" display="Adyn Bucher" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/bucher_adyn_gsbb"/>
-    <hyperlink ref="B8" r:id="rId8" display="Dominique Doseck" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/doseck_dominique_sh58"/>
-    <hyperlink ref="B9" r:id="rId9" display="Olivia Bower" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/bower_olivia_d1xe"/>
-    <hyperlink ref="B10" r:id="rId10" display="Kaylee Bambule" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/bambule_kaylee_s0o3"/>
-    <hyperlink ref="B11" r:id="rId11" display="Hannah Thome" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/thome_hannah_8yst"/>
-    <hyperlink ref="B12" r:id="rId12" display="Meche'la Cobb" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/cobb_meche-la_s044"/>
-    <hyperlink ref="B13" r:id="rId13" display="Gabby Burris" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/burris_gabby_s5pp"/>
-    <hyperlink ref="B14" r:id="rId14" display="Kendall Jessing" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/jessing_kendall_nwom"/>
+    <hyperlink ref="B2" r:id="rId1" display="Taylor Agler" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/agler_taylor_ovbv"/>
+    <hyperlink ref="B3" r:id="rId2" display="Cierra Hooks" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/hooks_cierra_xmvn"/>
+    <hyperlink ref="B4" r:id="rId3" display="Katie Barker" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/barker_katie_lsqw"/>
+    <hyperlink ref="B5" r:id="rId4" display="Amani Burke" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/burke_amani_6yzy"/>
+    <hyperlink ref="B6" r:id="rId5" display="Erica Johnson" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/johnson_erica_xxe3"/>
+    <hyperlink ref="B7" r:id="rId6" display="Alexis Stover" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/stover_alexis_dkp4"/>
+    <hyperlink ref="B8" r:id="rId7" display="Adyn Bucher" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/bucher_adyn_gsbb"/>
+    <hyperlink ref="B9" r:id="rId8" display="Dominique Doseck" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/doseck_dominique_sh58"/>
+    <hyperlink ref="B10" r:id="rId9" display="Olivia Bower" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/bower_olivia_d1xe"/>
+    <hyperlink ref="B11" r:id="rId10" display="Kaylee Bambule" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/bambule_kaylee_s0o3"/>
+    <hyperlink ref="B12" r:id="rId11" display="Hannah Thome" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/thome_hannah_8yst"/>
+    <hyperlink ref="B13" r:id="rId12" display="Meche'la Cobb" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/cobb_meche-la_s044"/>
+    <hyperlink ref="B14" r:id="rId13" display="Gabby Burris" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/burris_gabby_s5pp"/>
+    <hyperlink ref="B15" r:id="rId14" display="Kendall Jessing" tooltip="http://www.ohiobobcats.com/sports/wbkb/2017-18/bios/jessing_kendall_nwom"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
